--- a/reports/combined_reports.xlsx
+++ b/reports/combined_reports.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="F1-Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Softmax Values" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,182 +437,374 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RandomColorJitter.txt</t>
+          <t>akiec</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RandomGrayScale.txt</t>
+          <t>bcc</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RandomHorizontalFlip.txt</t>
+          <t>bkl</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RandomRotation.txt</t>
+          <t>df</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>RandomVerticalFlip.txt</t>
+          <t>mel</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>nv</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vasc</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>akiec</t>
+          <t>RandomVerticalFlip.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.6456692913385826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5396825396825397</v>
+        <v>0.8054298642533937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.8018433179723501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6456692913385826</v>
+        <v>0.7027027027027026</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9394050679397723</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8846153846153847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>bcc</t>
+          <t>RandomHorizontalFlip.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6903553299492386</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7263681592039802</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.7651331719128329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.6857142857142856</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8054298642533937</v>
+        <v>0.6772727272727274</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9412628487518355</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8852459016393442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>bkl</t>
+          <t>RandomGrayScale.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7112171837708831</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C4" t="n">
+        <v>0.7263681592039802</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.6505376344086022</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.7651331719128329</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.8144578313253013</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8018433179723501</v>
+        <v>0.5467625899280576</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9216391085549964</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>df</t>
+          <t>RandomColorJitter.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6903553299492386</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7112171837708831</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.5405405405405405</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6857142857142856</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8095238095238095</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.6442105263157893</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9276752767527675</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RandomRotation.txt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8144578313253013</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9526605504587158</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>akiec</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bcc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>bkl</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>mel</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>nv</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vasc</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RandomVerticalFlip.txt</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2055764005075059</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2048027455340614</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2105443148273653</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.201827039981518</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2079687151358304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2005642718181182</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2126018954815683</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RandomHorizontalFlip.txt</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2087558529210447</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2114157844826631</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2029553505157845</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2157408156334575</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2027467543963926</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2009372225970225</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2127359868650032</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RandomGrayScale.txt</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1849029313205847</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1892342364412668</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1809807132841814</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1516684376747086</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1779402015699801</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1970325204795779</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1709673604354039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RandomColorJitter.txt</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1777091903431949</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1825406275025251</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1923025702826018</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1865881934422787</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1961531014199602</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1982254386188629</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1858251163931961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RandomRotation.txt</t>
+        </is>
+      </c>
       <c r="B6" t="n">
-        <v>0.6442105263157893</v>
+        <v>0.2230556249076698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5467625899280576</v>
+        <v>0.2120066060394837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6772727272727274</v>
+        <v>0.2132170510900669</v>
       </c>
       <c r="E6" t="n">
-        <v>0.736842105263158</v>
+        <v>0.244175513268037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7027027027027026</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>nv</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9276752767527675</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9216391085549964</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9412628487518355</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9526605504587158</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9394050679397723</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>vasc</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8852459016393442</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8846153846153847</v>
+        <v>0.2151912274778367</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2032405464864185</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2178696408248285</v>
       </c>
     </row>
   </sheetData>

--- a/reports/combined_reports.xlsx
+++ b/reports/combined_reports.xlsx
@@ -474,29 +474,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DynamicAugmentation.txt</t>
+          <t>DynamicAugmentationv2.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5688073394495413</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7853403141361257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7617107942973523</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6298850574712643</v>
+        <v>0.6185567010309279</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9310217631870159</v>
+        <v>0.9330909090909091</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="3">
@@ -810,29 +810,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DynamicAugmentation.txt</t>
+          <t>DynamicAugmentationv2.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09702370443947186</v>
+        <v>0.09071592310570269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1041628205677435</v>
+        <v>0.1010024770979255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1021534202655329</v>
+        <v>0.1005187775529182</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1052925327288051</v>
+        <v>0.1022680118213542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09816789323363012</v>
+        <v>0.09716953827137453</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09960847793131514</v>
+        <v>0.09979420645642355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1062928107622183</v>
+        <v>0.1073227618733614</v>
       </c>
     </row>
     <row r="3">
@@ -842,25 +842,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09813073856850499</v>
+        <v>0.09881623523553229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0945430610649305</v>
+        <v>0.0948765910327786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1003555668892233</v>
+        <v>0.1005382768307529</v>
       </c>
       <c r="E3" t="n">
-        <v>0.100029030722988</v>
+        <v>0.1003671746480594</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1015152248505136</v>
+        <v>0.1016276052234385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1001691866787825</v>
+        <v>0.1001485242504419</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1010874430689423</v>
+        <v>0.1009709450418869</v>
       </c>
     </row>
     <row r="4">
@@ -870,25 +870,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09930023969187093</v>
+        <v>0.09999390596134744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09467226235821542</v>
+        <v>0.09500624812369382</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1007332606300128</v>
+        <v>0.1009166582105387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1003961093236198</v>
+        <v>0.100735494142439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0960277573626068</v>
+        <v>0.09613406294582781</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09960353835387428</v>
+        <v>0.09958299260480774</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09962115850685499</v>
+        <v>0.09950635029658984</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09057225997401726</v>
+        <v>0.09120495655047252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09152740687120067</v>
+        <v>0.09185029818365781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09539555368574908</v>
+        <v>0.09556923329891236</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09281575287951088</v>
+        <v>0.09312951262266031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09958431556367255</v>
+        <v>0.09969455836259253</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09927569664577796</v>
+        <v>0.09925521852235585</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09037041532382932</v>
+        <v>0.09026626811454412</v>
       </c>
     </row>
     <row r="6">
@@ -926,25 +926,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1012627103873308</v>
+        <v>0.1019700855836991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0988024601124919</v>
+        <v>0.09915101643141624</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1000768983649182</v>
+        <v>0.1002591009553226</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09644985192734229</v>
+        <v>0.09677589658925229</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09737834899833162</v>
+        <v>0.09748614972665934</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09939047748753856</v>
+        <v>0.09936997568766466</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1010874430689423</v>
+        <v>0.1009709450418869</v>
       </c>
     </row>
     <row r="7">
@@ -954,25 +954,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09423866223904134</v>
+        <v>0.09489697063264298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09488363872574734</v>
+        <v>0.0952183701869148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08977911904565057</v>
+        <v>0.08994257323259679</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0754453964698043</v>
+        <v>0.07570043645476139</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09033786902339154</v>
+        <v>0.09043787573100642</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09867825678062217</v>
+        <v>0.09865790189428335</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08314479586642136</v>
+        <v>0.08304897580821928</v>
       </c>
     </row>
     <row r="8">
@@ -982,25 +982,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1063956756842351</v>
+        <v>0.1071389074394587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1060056535911223</v>
+        <v>0.1063796214089158</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1006800793535218</v>
+        <v>0.1008633801108398</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1073173273208929</v>
+        <v>0.1076801090256257</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1029318253097283</v>
+        <v>0.1030457739014906</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1006338182141317</v>
+        <v>0.100613059943785</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1034577018460511</v>
+        <v>0.1033384722188804</v>
       </c>
     </row>
     <row r="9">
@@ -1010,25 +1010,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09461701337147098</v>
+        <v>0.09527796475384483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1064109800088484</v>
+        <v>0.1067863777412812</v>
       </c>
       <c r="D9" t="n">
-        <v>0.100610762090443</v>
+        <v>0.1007939366469585</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1003961093236198</v>
+        <v>0.100735494142439</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09922410201890085</v>
+        <v>0.09933394605071419</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1004061378069226</v>
+        <v>0.1003854265014186</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1055914420797913</v>
+        <v>0.1054697534278403</v>
       </c>
     </row>
     <row r="10">
@@ -1038,25 +1038,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1136837774613043</v>
+        <v>0.1144779205777387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1063018964920001</v>
+        <v>0.106676909398498</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1057706020990184</v>
+        <v>0.1059631707937514</v>
       </c>
       <c r="E10" t="n">
-        <v>0.121461779979797</v>
+        <v>0.1218723764109697</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1092497184523552</v>
+        <v>0.1093706611397175</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1017873739096765</v>
+        <v>0.1017663776892906</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1059542989125994</v>
+        <v>0.1058321920869975</v>
       </c>
     </row>
     <row r="11">
@@ -1066,25 +1066,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1047752181827524</v>
+        <v>0.1055071301595607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1026898202076998</v>
+        <v>0.1030520903949183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.10444473757593</v>
+        <v>0.1046348923674089</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1003961093236198</v>
+        <v>0.100735494142439</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1055829451868692</v>
+        <v>0.1056998286471785</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1004470361913586</v>
+        <v>0.1004263164495284</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1033924905643495</v>
+        <v>0.1032733360897935</v>
       </c>
     </row>
   </sheetData>
